--- a/data/接口测试示例-2.xlsx
+++ b/data/接口测试示例-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\video\s28-testing-day11-接口测试自动化-实现\s28IT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\ATScripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E0058A-09BB-49D0-A44F-910973F841DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C710F35-BDF3-4F0A-9C2C-4AE537E27D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用接口" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>neeo_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,80 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"success"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>"1"</t>
     </r>
     <r>
@@ -396,7 +470,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"success"</t>
+      <t>"success1"</t>
     </r>
     <r>
       <rPr>
@@ -436,7 +510,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"2"</t>
+      <t>"1"</t>
     </r>
     <r>
       <rPr>
@@ -839,31 +913,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -895,7 +969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,7 +989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -935,7 +1009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F4" s="1"/>
     </row>
   </sheetData>
@@ -953,19 +1027,19 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1056,16 +1130,16 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1154,23 +1228,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711EEA3D-FEBE-4D25-80A3-41842AF40F5A}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1219,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1265,7 +1339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="14.55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1325,10 +1399,10 @@
         <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="42.35" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1345,7 +1419,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
